--- a/data/weather_conditions_dataset.xlsx
+++ b/data/weather_conditions_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_personal\Ideal-Conditions-Hackathon\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2A2274-CCD2-4C83-B624-9BC1C2B3A2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C7A9C7-C6A4-4FE4-8020-39688FD7E7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{A18F2B39-025E-435D-9544-1F8B873ED72E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="11">
   <si>
     <t>Weather</t>
   </si>
@@ -462,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7E2FBA-1C6F-4655-81FD-94CA61F8403B}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="7">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>3</v>
@@ -1273,6 +1273,118 @@
         <v>6</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="7">
+        <v>62</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="7">
+        <v>74</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="7">
+        <v>65</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="7">
+        <v>68</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="7">
+        <v>91</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="7">
+        <v>88</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="7">
+        <v>86</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="7">
+        <v>77</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>5</v>
       </c>
     </row>
